--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>0.8265663484475556</v>
+        <v>0.02110034353511111</v>
       </c>
       <c r="R2">
-        <v>7.439097136028</v>
+        <v>0.189903091816</v>
       </c>
       <c r="S2">
-        <v>0.003074487025966753</v>
+        <v>0.000143047567844911</v>
       </c>
       <c r="T2">
-        <v>0.003074487025966753</v>
+        <v>0.000143047567844911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H3">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I3">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J3">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>0.8146779081008888</v>
+        <v>0.5170101877915556</v>
       </c>
       <c r="R3">
-        <v>7.332101172908</v>
+        <v>4.653091690124</v>
       </c>
       <c r="S3">
-        <v>0.003030266915054355</v>
+        <v>0.003505016389498953</v>
       </c>
       <c r="T3">
-        <v>0.003030266915054355</v>
+        <v>0.003505016389498954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H4">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I4">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J4">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>0.1215994424534444</v>
+        <v>0.07716933275477779</v>
       </c>
       <c r="R4">
-        <v>1.094394982081</v>
+        <v>0.6945239947930001</v>
       </c>
       <c r="S4">
-        <v>0.0004522999380389441</v>
+        <v>0.0005231614046670288</v>
       </c>
       <c r="T4">
-        <v>0.0004522999380389441</v>
+        <v>0.0005231614046670288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.171991</v>
       </c>
       <c r="I5">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J5">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>67.74528692477911</v>
+        <v>2.725070428987556</v>
       </c>
       <c r="R5">
-        <v>609.7075823230119</v>
+        <v>24.525633860888</v>
       </c>
       <c r="S5">
-        <v>0.2519846181880264</v>
+        <v>0.01847432940720154</v>
       </c>
       <c r="T5">
-        <v>0.2519846181880264</v>
+        <v>0.01847432940720154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.171991</v>
       </c>
       <c r="I6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>66.77091166272578</v>
@@ -818,10 +818,10 @@
         <v>600.9382049645319</v>
       </c>
       <c r="S6">
-        <v>0.2483603427656935</v>
+        <v>0.4526663985468627</v>
       </c>
       <c r="T6">
-        <v>0.2483603427656935</v>
+        <v>0.4526663985468627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.171991</v>
       </c>
       <c r="I7">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J7">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>9.966276916999888</v>
+        <v>9.96627691699989</v>
       </c>
       <c r="R7">
         <v>89.69649225299899</v>
       </c>
       <c r="S7">
-        <v>0.03707045312945283</v>
+        <v>0.06756532997073808</v>
       </c>
       <c r="T7">
-        <v>0.03707045312945283</v>
+        <v>0.06756532997073807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>23.905536</v>
       </c>
       <c r="I8">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J8">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>57.48572741666133</v>
+        <v>2.312377184938667</v>
       </c>
       <c r="R8">
-        <v>517.3715467499519</v>
+        <v>20.811394664448</v>
       </c>
       <c r="S8">
-        <v>0.2138232743841257</v>
+        <v>0.01567651880620419</v>
       </c>
       <c r="T8">
-        <v>0.2138232743841257</v>
+        <v>0.01567651880620419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>23.905536</v>
       </c>
       <c r="I9">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J9">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>56.65891461154133</v>
       </c>
       <c r="R9">
-        <v>509.9302315038719</v>
+        <v>509.9302315038721</v>
       </c>
       <c r="S9">
-        <v>0.2107478706406525</v>
+        <v>0.3841131741967536</v>
       </c>
       <c r="T9">
-        <v>0.2107478706406525</v>
+        <v>0.3841131741967536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>23.905536</v>
       </c>
       <c r="I10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>8.456952567722665</v>
+        <v>8.456952567722668</v>
       </c>
       <c r="R10">
-        <v>76.11257310950398</v>
+        <v>76.11257310950401</v>
       </c>
       <c r="S10">
-        <v>0.03145638701298915</v>
+        <v>0.05733302371022901</v>
       </c>
       <c r="T10">
-        <v>0.03145638701298915</v>
+        <v>0.057333023710229</v>
       </c>
     </row>
   </sheetData>
